--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -10,14 +10,14 @@
     <sheet name="评委名单（投票）" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'评委名单（投票）'!$A$1:$A$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'评委名单（投票）'!$A$1:$A$73</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>庞静</t>
   </si>
@@ -40,12 +40,6 @@
     <t>罗维</t>
   </si>
   <si>
-    <t>余波</t>
-  </si>
-  <si>
-    <t>赵世佰</t>
-  </si>
-  <si>
     <t>马辉</t>
   </si>
   <si>
@@ -61,12 +55,6 @@
     <t>胡湘兰</t>
   </si>
   <si>
-    <t>张国红</t>
-  </si>
-  <si>
-    <t>马鑫</t>
-  </si>
-  <si>
     <t>赵方伟</t>
   </si>
   <si>
@@ -139,42 +127,21 @@
     <t>李晶晶</t>
   </si>
   <si>
-    <t>刘丽</t>
-  </si>
-  <si>
     <t>裴媛媛</t>
   </si>
   <si>
-    <t>谯显华</t>
-  </si>
-  <si>
     <t>邢公琴</t>
   </si>
   <si>
-    <t>李骏</t>
-  </si>
-  <si>
-    <t>蒋毅</t>
-  </si>
-  <si>
     <t>马耀慧</t>
   </si>
   <si>
     <t>罗七奇</t>
   </si>
   <si>
-    <t>曾连超</t>
-  </si>
-  <si>
     <t>杨鑫</t>
   </si>
   <si>
-    <t>张洪</t>
-  </si>
-  <si>
-    <t>田杰</t>
-  </si>
-  <si>
     <t>刘惠</t>
   </si>
   <si>
@@ -199,15 +166,9 @@
     <t>姬全胜</t>
   </si>
   <si>
-    <t>刘学</t>
-  </si>
-  <si>
     <t>程铃</t>
   </si>
   <si>
-    <t>冯慧</t>
-  </si>
-  <si>
     <t>杨惠</t>
   </si>
   <si>
@@ -220,9 +181,6 @@
     <t>艾祥福</t>
   </si>
   <si>
-    <t>蒋智会</t>
-  </si>
-  <si>
     <t>彭丹清</t>
   </si>
   <si>
@@ -238,18 +196,9 @@
     <t>焦慧慧</t>
   </si>
   <si>
-    <t>郭思奇</t>
-  </si>
-  <si>
     <t>许灿</t>
   </si>
   <si>
-    <t>黄箭</t>
-  </si>
-  <si>
-    <t>赵定川</t>
-  </si>
-  <si>
     <t>乔燕红</t>
   </si>
   <si>
@@ -265,34 +214,16 @@
     <t>张静</t>
   </si>
   <si>
-    <t>高洋</t>
-  </si>
-  <si>
-    <t>蔡睿</t>
-  </si>
-  <si>
-    <t>王乐</t>
-  </si>
-  <si>
     <t>陈春华</t>
   </si>
   <si>
     <t>刘杨</t>
   </si>
   <si>
-    <t>方俸龙</t>
-  </si>
-  <si>
     <t>刘爽</t>
   </si>
   <si>
     <t>张俊杰</t>
-  </si>
-  <si>
-    <t>沈蜀峰</t>
-  </si>
-  <si>
-    <t>刘世兰</t>
   </si>
   <si>
     <t>陈婷婷</t>
@@ -1308,10 +1239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1464,27 +1395,27 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1492,11 +1423,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2">
@@ -1504,7 +1435,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2">
@@ -1512,7 +1443,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2">
@@ -1620,7 +1551,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1628,7 +1559,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1636,7 +1567,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1644,7 +1575,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1652,7 +1583,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1660,7 +1591,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1896,200 +1827,16 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="2">
-        <v>1</v>
+      <c r="B73" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
